--- a/SCF-prod/files/订单贷导入模板_new.xlsx
+++ b/SCF-prod/files/订单贷导入模板_new.xlsx
@@ -580,12 +580,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>9831752604</t>
+          <t>9234578160</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>订单名称658497</t>
+          <t>订单名称653274</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1402398765</t>
+          <t>4276305198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>订单名称149205</t>
+          <t>订单名称674513</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9263078451</t>
+          <t>9831602754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>订单名称269534</t>
+          <t>订单名称714908</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
